--- a/Evaluation_robot_motion_IK/Robot coordinates compare in real and virtual robot.xlsx
+++ b/Evaluation_robot_motion_IK/Robot coordinates compare in real and virtual robot.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\master_thesis\project\robwot\Evaluation_robot_motion_IK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C26486-0739-43AE-B817-DD2BE4057F2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F452CC4-DEED-4B51-A288-04EAF63BAA1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
   <si>
     <t>Target</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,10 +76,6 @@
   </si>
   <si>
     <t>Position in virtual robot(Unit: mm)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Motion</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -110,10 +106,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(-297.99, 462, 40.26)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{
   joint4: -49.184510727675,
   joint1: -219.80913420897,
@@ -207,6 +199,105 @@
   <si>
     <t>(-18.01, -700.12, 256.33)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  joint4: -43.081531798593,
+  joint1: -86.618833469079,
+  joint5: 89.989395220697,
+  joint6: -85.841885790612,
+  joint2: -164.255999826059,
+  joint3: -62.902914029178
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-100, -1100, -450)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-100.09528925634254, -1098.3342417271333, -452.4915122289163)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-99.41, -1099.80, -451.29)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-600, 400, 550)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-600.5549150964766, 400.59187648703414, 548.6425787857714)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  joint4: -206.95738629049998,
+  joint1: -46.981565488959,
+  joint5: 89.985952805355,
+  joint2: -23.629180363154006,
+  joint3: -39.258493009508,
+  joint6: -46.201380300826
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-600.25, 404.9, 555.44)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-297.99, 462.03, 40.26)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Motion1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Motion2</t>
+  </si>
+  <si>
+    <t>Motion3</t>
+  </si>
+  <si>
+    <t>Motion4</t>
+  </si>
+  <si>
+    <t>Motion5</t>
+  </si>
+  <si>
+    <t>Motion6</t>
+  </si>
+  <si>
+    <t>Motion7</t>
+  </si>
+  <si>
+    <t>Motion8</t>
+  </si>
+  <si>
+    <t>Motion9</t>
+  </si>
+  <si>
+    <t>Motion10</t>
+  </si>
+  <si>
+    <t>Motion11</t>
+  </si>
+  <si>
+    <t>Motion12</t>
+  </si>
+  <si>
+    <t>Motion13</t>
+  </si>
+  <si>
+    <t>Motion14</t>
+  </si>
+  <si>
+    <t>Motion15</t>
+  </si>
+  <si>
+    <t>Motion16</t>
   </si>
 </sst>
 </file>
@@ -534,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -566,7 +657,7 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="113.15" x14ac:dyDescent="0.35">
@@ -577,16 +668,16 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="113.15" x14ac:dyDescent="0.35">
@@ -597,16 +688,16 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="113.15" x14ac:dyDescent="0.35">
@@ -617,138 +708,172 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="113.15" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="113.15" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="113.15" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" t="s">
         <v>28</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="113.15" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="113.15" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>46</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>13</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/Evaluation_robot_motion_IK/Robot coordinates compare in real and virtual robot.xlsx
+++ b/Evaluation_robot_motion_IK/Robot coordinates compare in real and virtual robot.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\master_thesis\project\robwot\Evaluation_robot_motion_IK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F452CC4-DEED-4B51-A288-04EAF63BAA1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB77AE4D-1A23-4608-B610-50C0F515C2E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="77">
   <si>
     <t>Target</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -279,25 +279,149 @@
     <t>Motion9</t>
   </si>
   <si>
+    <t>Motion11</t>
+  </si>
+  <si>
+    <t>(-975, 235, -315)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-974.7802041191967, 234.90844786028856, -315.380913279439 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  joint4: -296.73014157110003,
+  joint1: -23.054688826353,
+  joint5: 89.970817106155,
+  joint6: -22.28033661977,
+  joint3: 40.13167805338,
+  joint2: -13.452280462104994
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-975.81, 236.5, -312.75)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-10, 465, 45)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-9.986407035401726, 464.9665818265494, 44.95818465663535)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-9.55, 468.18, 51.04)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  joint4: -52.198167774403,
+  joint1: 111.5654983559,
+  joint5: 90.010650769394,
+  joint6: 112.34143516637,
+  joint3: -139.90220469386,
+  joint2: -77.890060941189
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-295, -30, 45)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-294.9781323963974, 29.984222059687568, 44.98261739798136)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+  joint4: -67.713174700518,
+  joint1: 219.14941989742,
+  joint5: 89.998766240238,
+  joint6: 219.92524742486,
+  joint3: -152.84789935989,
+  joint2: -49.407079271969
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-294.03, -28.34, 51.06)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Motion10</t>
-  </si>
-  <si>
-    <t>Motion11</t>
-  </si>
-  <si>
-    <t>Motion12</t>
-  </si>
-  <si>
-    <t>Motion13</t>
-  </si>
-  <si>
-    <t>Motion14</t>
-  </si>
-  <si>
-    <t>Motion15</t>
-  </si>
-  <si>
-    <t>Motion16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(235, -155, 1610)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(235.06512640051, -155.23856429853572, 1608.886777280843)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  joint4: 11.40102939914,
+  joint1: 44.850560128294,
+  joint5: 70.780061915927,
+  joint2: -99.1792278293635,
+  joint6: -222.84460687991,
+  joint3: 0.11325819681715
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(233.07, -150.31, 1599.51)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-765, 350, 1195)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-765.0586810996779, 350.13341321072596, 1194.5060641921482)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  joint4: -111.874377496261,
+  joint1: -60.564612427202,
+  joint5: 13.749539629451,
+  joint3: 0.11644106497038,
+  joint6: -101.18219013814,
+  joint2: -52.133608826368
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-755.27, 360.29, 1193.33)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(540, -935, 175)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(539.8157428621626, -934.7823703693142, 174.69243250653176)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  joint4: -80.6758082356921,
+  joint1: -51.18506880986,
+  joint5: 89.976335899004,
+  joint6: -50.40839433896,
+  joint2: -129.50935219734401,
+  joint3: -59.830940827316
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(541.86, -935.35, 181.76)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -625,10 +749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -820,60 +944,115 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="113.15" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="113.15" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="113.15" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="113.15" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="113.15" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="113.15" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>57</v>
+      <c r="B15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/Evaluation_robot_motion_IK/Robot coordinates compare in real and virtual robot.xlsx
+++ b/Evaluation_robot_motion_IK/Robot coordinates compare in real and virtual robot.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\master_thesis\project\robwot\Evaluation_robot_motion_IK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB77AE4D-1A23-4608-B610-50C0F515C2E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C43D2A7-2926-4C31-8633-3CA60F996425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="86">
   <si>
     <t>Target</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -421,6 +421,41 @@
   </si>
   <si>
     <t>(541.86, -935.35, 181.76)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Position error in real robot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Position error in virtual robot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Distance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>variance</t>
+  </si>
+  <si>
+    <t>standard deviation</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -464,10 +499,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -749,10 +790,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -760,11 +801,17 @@
     <col min="1" max="1" width="25.28515625" customWidth="1"/>
     <col min="2" max="2" width="26.0703125" customWidth="1"/>
     <col min="3" max="3" width="39.2109375" customWidth="1"/>
-    <col min="4" max="4" width="50.2109375" customWidth="1"/>
-    <col min="5" max="5" width="32.78515625" customWidth="1"/>
+    <col min="4" max="4" width="11.0703125" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+    <col min="6" max="7" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="50.2109375" customWidth="1"/>
+    <col min="9" max="9" width="11.0703125" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" customWidth="1"/>
+    <col min="11" max="12" width="11.5703125" customWidth="1"/>
+    <col min="13" max="13" width="32.78515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -774,288 +821,832 @@
       <c r="C1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="2"/>
+      <c r="H1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="O1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="113.15" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="113.15" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3">
+        <f>280-279.88</f>
+        <v>0.12000000000000455</v>
+      </c>
+      <c r="E3">
+        <f>-509+511.6</f>
+        <v>2.6000000000000227</v>
+      </c>
+      <c r="F3">
+        <f>35-40.27</f>
+        <v>-5.2700000000000031</v>
+      </c>
+      <c r="G3">
+        <f>SQRT(D3^2+E3^2+F3^2)</f>
+        <v>5.8776951264930499</v>
+      </c>
+      <c r="H3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="I3">
+        <f>280-279.969345875441</f>
+        <v>3.0654124559021056E-2</v>
+      </c>
+      <c r="J3">
+        <f>-509+508.96237223282</f>
+        <v>-3.7627767180026694E-2</v>
+      </c>
+      <c r="K3">
+        <f>35-34.9227171539001</f>
+        <v>7.7282846099897995E-2</v>
+      </c>
+      <c r="L3">
+        <f>SQRT(I3^2+J3^2+K3^2)</f>
+        <v>9.1258766793852697E-2</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G2" t="s">
+      <c r="O3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="113.15" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="4" spans="1:15" ht="113.15" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4">
+        <f>-300+299.28</f>
+        <v>-0.72000000000002728</v>
+      </c>
+      <c r="E4">
+        <f>-509+508.86</f>
+        <v>-0.13999999999998636</v>
+      </c>
+      <c r="F4">
+        <f>35-40.67</f>
+        <v>-5.6700000000000017</v>
+      </c>
+      <c r="G4">
+        <f>SQRT(D4^2+E4^2+F4^2)</f>
+        <v>5.7172458404375135</v>
+      </c>
+      <c r="H4" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="I4">
+        <f>-300+299.94966595309</f>
+        <v>-5.0334046909995322E-2</v>
+      </c>
+      <c r="J4">
+        <f>-509+508.82479942287</f>
+        <v>-0.17520057712999915</v>
+      </c>
+      <c r="K4">
+        <f>35- 34.6042041286717</f>
+        <v>0.39579587132830341</v>
+      </c>
+      <c r="L4">
+        <f>SQRT(I4^2+J4^2+K4^2)</f>
+        <v>0.43575581495322963</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G3" t="s">
+      <c r="O4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="113.15" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="5" spans="1:15" ht="113.15" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>41</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5">
+        <f>-300+297.99</f>
+        <v>-2.0099999999999909</v>
+      </c>
+      <c r="E5">
+        <f>460-462.03</f>
+        <v>-2.0299999999999727</v>
+      </c>
+      <c r="F5">
+        <f>35-40.26</f>
+        <v>-5.259999999999998</v>
+      </c>
+      <c r="G5">
+        <f>SQRT(D5^2+E5^2+F5^2)</f>
+        <v>5.9856996249394134</v>
+      </c>
+      <c r="H5" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="I5">
+        <f>-300+299.966922798561</f>
+        <v>-3.3077201439027704E-2</v>
+      </c>
+      <c r="J5">
+        <f>460-459.978329858215</f>
+        <v>2.1670141785023134E-2</v>
+      </c>
+      <c r="K5">
+        <f>35-34.9451976423032</f>
+        <v>5.4802357696800641E-2</v>
+      </c>
+      <c r="L5">
+        <f>SQRT(I5^2+J5^2+K5^2)</f>
+        <v>6.7579543570144854E-2</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G4" t="s">
+      <c r="O5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="113.15" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="6" spans="1:15" ht="113.15" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>42</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6">
+        <f>600-601.65</f>
+        <v>-1.6499999999999773</v>
+      </c>
+      <c r="E6">
+        <f>-100+97.51</f>
+        <v>-2.4899999999999949</v>
+      </c>
+      <c r="F6">
+        <f>750-758.39</f>
+        <v>-8.3899999999999864</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ref="G4:G16" si="0">SQRT(D6^2+E6^2+F6^2)</f>
+        <v>8.9058800800369902</v>
+      </c>
+      <c r="H6" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="I6">
+        <f>600-600.665684843734</f>
+        <v>-0.66568484373397041</v>
+      </c>
+      <c r="J6">
+        <f>-100+99.947282537968</f>
+        <v>-5.2717462032006779E-2</v>
+      </c>
+      <c r="K6">
+        <f>750- 749.306494590303</f>
+        <v>0.69350540969696794</v>
+      </c>
+      <c r="L6">
+        <f t="shared" ref="L4:L16" si="1">SQRT(I6^2+J6^2+K6^2)</f>
+        <v>0.96273838360126474</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G5" t="s">
+      <c r="O6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="113.15" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row r="7" spans="1:15" ht="113.15" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>43</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7">
+        <f>600-603.77</f>
+        <v>-3.7699999999999818</v>
+      </c>
+      <c r="E7">
+        <f>-300+298.33</f>
+        <v>-1.6700000000000159</v>
+      </c>
+      <c r="F7">
+        <f>-550+550.86</f>
+        <v>0.86000000000001364</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>4.2120541307062922</v>
+      </c>
+      <c r="H7" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="I7">
+        <f>600-599.108787885127</f>
+        <v>0.89121211487304208</v>
+      </c>
+      <c r="J7">
+        <f>-300+299.792684135635</f>
+        <v>-0.20731586436500038</v>
+      </c>
+      <c r="K7">
+        <f>-550+550.688711120141</f>
+        <v>0.68871112014096525</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>1.1452344337818832</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G6" t="s">
+      <c r="O7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="113.15" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="8" spans="1:15" ht="113.15" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>44</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>29</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>32</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8">
+        <f>-20+18.01</f>
+        <v>-1.9899999999999984</v>
+      </c>
+      <c r="E8">
+        <f>-700+700.12</f>
+        <v>0.12000000000000455</v>
+      </c>
+      <c r="F8">
+        <f>250-256.33</f>
+        <v>-6.3299999999999841</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>6.6365201725000276</v>
+      </c>
+      <c r="H8" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="I8">
+        <f>-20+20.0046220574348</f>
+        <v>4.6220574348012633E-3</v>
+      </c>
+      <c r="J8">
+        <f>-700+699.956177704119</f>
+        <v>-4.3822295881000173E-2</v>
+      </c>
+      <c r="K8">
+        <f>250-249.274647394791</f>
+        <v>0.72535260520899669</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>0.72668986432637905</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G7" t="s">
+      <c r="O8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="113.15" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="9" spans="1:15" ht="113.15" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>45</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>34</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>36</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9">
+        <f>-100+99.41</f>
+        <v>-0.59000000000000341</v>
+      </c>
+      <c r="E9">
+        <f>-1100+1099.8</f>
+        <v>-0.20000000000004547</v>
+      </c>
+      <c r="F9">
+        <f>-450+451.29</f>
+        <v>1.2900000000000205</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>1.4325501736414243</v>
+      </c>
+      <c r="H9" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="I9">
+        <f>-100+100.095289256342</f>
+        <v>9.5289256341999362E-2</v>
+      </c>
+      <c r="J9">
+        <f>-1100+1098.33424172713</f>
+        <v>-1.6657582728701072</v>
+      </c>
+      <c r="K9">
+        <f>-450+452.491512228916</f>
+        <v>2.4915122289160081</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>2.9985769713061274</v>
+      </c>
+      <c r="M9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G8" t="s">
+      <c r="O9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="113.15" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="10" spans="1:15" ht="113.15" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>46</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>37</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>40</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10">
+        <f>-600+600.25</f>
+        <v>0.25</v>
+      </c>
+      <c r="E10">
+        <f>400-404.9</f>
+        <v>-4.8999999999999773</v>
+      </c>
+      <c r="F10">
+        <f>550-555.44</f>
+        <v>-5.4400000000000546</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>7.3257149821707079</v>
+      </c>
+      <c r="H10" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="I10">
+        <f>-600+600.554915096476</f>
+        <v>0.55491509647595194</v>
+      </c>
+      <c r="J10">
+        <f>400-400.591876487034</f>
+        <v>-0.59187648703402829</v>
+      </c>
+      <c r="K10">
+        <f>550- 548.642578785771</f>
+        <v>1.3574212142290207</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>1.5814047214548355</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G9" t="s">
+      <c r="O10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="113.15" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    <row r="11" spans="1:15" ht="113.15" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>47</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>52</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>55</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11">
+        <f>-975+975.81</f>
+        <v>0.80999999999994543</v>
+      </c>
+      <c r="E11">
+        <f>235-236.5</f>
+        <v>-1.5</v>
+      </c>
+      <c r="F11">
+        <f>-315+312.75</f>
+        <v>-2.25</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>2.8228708790874428</v>
+      </c>
+      <c r="H11" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="I11">
+        <f>-975+974.780204119196</f>
+        <v>-0.21979588080398571</v>
+      </c>
+      <c r="J11">
+        <f>235- 234.908447860288</f>
+        <v>9.1552139712007374E-2</v>
+      </c>
+      <c r="K11">
+        <f>-315+315.380913279439</f>
+        <v>0.38091327943902797</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>0.44920702349500485</v>
+      </c>
+      <c r="M11" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G10" t="s">
+      <c r="O11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="113.15" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row r="12" spans="1:15" ht="113.15" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>48</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>56</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>58</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12">
+        <f>-10+9.55</f>
+        <v>-0.44999999999999929</v>
+      </c>
+      <c r="E12">
+        <f>465-468.18</f>
+        <v>-3.1800000000000068</v>
+      </c>
+      <c r="F12">
+        <f>45-51.04</f>
+        <v>-6.0399999999999991</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>6.8407967372229415</v>
+      </c>
+      <c r="H12" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="I12">
+        <f>-10+9.98640703540172</f>
+        <v>-1.3592964598279522E-2</v>
+      </c>
+      <c r="J12">
+        <f>465-464.966581826549</f>
+        <v>3.3418173451025268E-2</v>
+      </c>
+      <c r="K12">
+        <f>45-44.9581846566353</f>
+        <v>4.1815343364703494E-2</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>5.5227402112365771E-2</v>
+      </c>
+      <c r="M12" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G11" t="s">
+      <c r="O12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="113.15" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+    <row r="13" spans="1:15" ht="113.15" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>49</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>60</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>63</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13">
+        <f>-295+294.03</f>
+        <v>-0.97000000000002728</v>
+      </c>
+      <c r="E13">
+        <f>-30+28.34</f>
+        <v>-1.6600000000000001</v>
+      </c>
+      <c r="F13">
+        <f>45-51.06</f>
+        <v>-6.0600000000000023</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>6.3576803946093481</v>
+      </c>
+      <c r="H13" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="I13">
+        <f>-295+294.03</f>
+        <v>-0.97000000000002728</v>
+      </c>
+      <c r="J13">
+        <f>-30+28.34</f>
+        <v>-1.6600000000000001</v>
+      </c>
+      <c r="K13">
+        <f>45-51.06</f>
+        <v>-6.0600000000000023</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="1"/>
+        <v>6.3576803946093481</v>
+      </c>
+      <c r="M13" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G12" t="s">
+      <c r="O13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="113.15" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="14" spans="1:15" ht="113.15" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>50</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>65</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>68</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14">
+        <f>235-233.07</f>
+        <v>1.9300000000000068</v>
+      </c>
+      <c r="E14">
+        <f>-155+150.31</f>
+        <v>-4.6899999999999977</v>
+      </c>
+      <c r="F14">
+        <f>1610-1599.51</f>
+        <v>10.490000000000009</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>11.651656534587698</v>
+      </c>
+      <c r="H14" t="s">
         <v>66</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="I14">
+        <f>235-235.06512640051</f>
+        <v>-6.5126400509996074E-2</v>
+      </c>
+      <c r="J14">
+        <f>-155+155.238564298535</f>
+        <v>0.23856429853501027</v>
+      </c>
+      <c r="K14">
+        <f>1610-1608.88677728084</f>
+        <v>1.1132227191599213</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="1"/>
+        <v>1.1403592394647832</v>
+      </c>
+      <c r="M14" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="113.15" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+    <row r="15" spans="1:15" ht="113.15" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>64</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>69</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>72</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15">
+        <f>-765+755.27</f>
+        <v>-9.7300000000000182</v>
+      </c>
+      <c r="E15">
+        <f>350-360.29</f>
+        <v>-10.29000000000002</v>
+      </c>
+      <c r="F15">
+        <f>1195-1193.33</f>
+        <v>1.6700000000000728</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>14.259940392582326</v>
+      </c>
+      <c r="H15" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="I15">
+        <f>-765+765.058681099677</f>
+        <v>5.8681099676960002E-2</v>
+      </c>
+      <c r="J15">
+        <f>350-350.133413210725</f>
+        <v>-0.13341321072499568</v>
+      </c>
+      <c r="K15">
+        <f>1195-1194.50606419214</f>
+        <v>0.49393580785999802</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="1"/>
+        <v>0.51499042567950548</v>
+      </c>
+      <c r="M15" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="113.15" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+    <row r="16" spans="1:15" ht="113.15" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>51</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>73</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>76</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16">
+        <f>540-541.86</f>
+        <v>-1.8600000000000136</v>
+      </c>
+      <c r="E16">
+        <f>-935+935.35</f>
+        <v>0.35000000000002274</v>
+      </c>
+      <c r="F16">
+        <f>175-181.76</f>
+        <v>-6.7599999999999909</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>7.0199501422730881</v>
+      </c>
+      <c r="H16" t="s">
         <v>74</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="I16">
+        <f>540-539.815742862162</f>
+        <v>0.18425713783801712</v>
+      </c>
+      <c r="J16">
+        <f>-935+934.782370369314</f>
+        <v>-0.21762963068601948</v>
+      </c>
+      <c r="K16">
+        <f>175-174.692432506531</f>
+        <v>0.30756749346900847</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="1"/>
+        <v>0.41941758670279888</v>
+      </c>
+      <c r="M16" s="1" t="s">
         <v>75</v>
       </c>
     </row>
+    <row r="21" spans="6:12" x14ac:dyDescent="0.35">
+      <c r="F21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G21">
+        <f>AVERAGE(G3:G16)</f>
+        <v>6.7890182293777332</v>
+      </c>
+      <c r="K21" t="s">
+        <v>83</v>
+      </c>
+      <c r="L21">
+        <f>AVERAGE(L3:L16)</f>
+        <v>1.2104371837036803</v>
+      </c>
+    </row>
+    <row r="22" spans="6:12" x14ac:dyDescent="0.35">
+      <c r="F22" t="s">
+        <v>85</v>
+      </c>
+      <c r="G22">
+        <f>_xlfn.STDEV.P(G3:G16)</f>
+        <v>3.1416754030803</v>
+      </c>
+      <c r="K22" t="s">
+        <v>85</v>
+      </c>
+      <c r="L22">
+        <f>_xlfn.STDEV.P(L3:L16)</f>
+        <v>1.6105867674699088</v>
+      </c>
+    </row>
+    <row r="23" spans="6:12" x14ac:dyDescent="0.35">
+      <c r="G23">
+        <f>_xlfn.STDEV.S(G3:G16)</f>
+        <v>3.260270643985967</v>
+      </c>
+    </row>
+    <row r="24" spans="6:12" x14ac:dyDescent="0.35">
+      <c r="F24" t="s">
+        <v>84</v>
+      </c>
+      <c r="G24">
+        <f>VAR(G3:G16)</f>
+        <v>10.629364672036672</v>
+      </c>
+      <c r="K24" t="s">
+        <v>84</v>
+      </c>
+      <c r="L24">
+        <f>VAR(L3:L16)</f>
+        <v>2.7935274075144911</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="I1:K1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Evaluation_robot_motion_IK/Robot coordinates compare in real and virtual robot.xlsx
+++ b/Evaluation_robot_motion_IK/Robot coordinates compare in real and virtual robot.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\master_thesis\project\robwot\Evaluation_robot_motion_IK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C43D2A7-2926-4C31-8633-3CA60F996425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD7D24F-3AB0-4CBC-AC13-4F41D4813585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -792,7 +792,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
@@ -1048,7 +1048,7 @@
         <v>-8.3899999999999864</v>
       </c>
       <c r="G6">
-        <f t="shared" ref="G4:G16" si="0">SQRT(D6^2+E6^2+F6^2)</f>
+        <f t="shared" ref="G6:G16" si="0">SQRT(D6^2+E6^2+F6^2)</f>
         <v>8.9058800800369902</v>
       </c>
       <c r="H6" t="s">
@@ -1067,7 +1067,7 @@
         <v>0.69350540969696794</v>
       </c>
       <c r="L6">
-        <f t="shared" ref="L4:L16" si="1">SQRT(I6^2+J6^2+K6^2)</f>
+        <f t="shared" ref="L6:L16" si="1">SQRT(I6^2+J6^2+K6^2)</f>
         <v>0.96273838360126474</v>
       </c>
       <c r="M6" s="1" t="s">
